--- a/src/output/output.xlsx
+++ b/src/output/output.xlsx
@@ -46,8 +46,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -128,9 +131,9 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>4</col>
       <colOff>0</colOff>
-      <row>4</row>
+      <row>6</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="4064000" cy="2286000"/>
@@ -153,9 +156,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>4</col>
       <colOff>0</colOff>
-      <row>8</row>
+      <row>11</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="4064000" cy="2286000"/>
@@ -178,9 +181,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>4</col>
       <colOff>0</colOff>
-      <row>13</row>
+      <row>17</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="4064000" cy="2286000"/>
@@ -203,9 +206,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>4</col>
       <colOff>0</colOff>
-      <row>17</row>
+      <row>22</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="4064000" cy="2286000"/>
@@ -228,9 +231,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>4</col>
       <colOff>0</colOff>
-      <row>22</row>
+      <row>28</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="4064000" cy="2286000"/>
@@ -253,9 +256,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>4</col>
       <colOff>0</colOff>
-      <row>26</row>
+      <row>33</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="4064000" cy="2286000"/>
@@ -278,9 +281,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>4</col>
       <colOff>0</colOff>
-      <row>31</row>
+      <row>39</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="4064000" cy="2286000"/>
@@ -303,9 +306,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>4</col>
       <colOff>0</colOff>
-      <row>35</row>
+      <row>44</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="4064000" cy="2286000"/>
@@ -328,9 +331,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>4</col>
       <colOff>0</colOff>
-      <row>40</row>
+      <row>50</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="4064000" cy="2286000"/>
@@ -353,9 +356,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>4</col>
       <colOff>0</colOff>
-      <row>44</row>
+      <row>55</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="4064000" cy="2286000"/>
@@ -378,9 +381,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>4</col>
       <colOff>0</colOff>
-      <row>49</row>
+      <row>61</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="4064000" cy="2286000"/>
@@ -403,9 +406,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>4</col>
       <colOff>0</colOff>
-      <row>53</row>
+      <row>66</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="4064000" cy="2286000"/>
@@ -428,9 +431,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>4</col>
       <colOff>0</colOff>
-      <row>58</row>
+      <row>72</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="4064000" cy="2286000"/>
@@ -453,9 +456,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>4</col>
       <colOff>0</colOff>
-      <row>62</row>
+      <row>77</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="4064000" cy="2286000"/>
@@ -478,9 +481,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>4</col>
       <colOff>0</colOff>
-      <row>67</row>
+      <row>83</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="4064000" cy="2286000"/>
@@ -503,9 +506,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>4</col>
       <colOff>0</colOff>
-      <row>71</row>
+      <row>88</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="4064000" cy="2286000"/>
@@ -528,9 +531,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>4</col>
       <colOff>0</colOff>
-      <row>76</row>
+      <row>94</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="4064000" cy="2286000"/>
@@ -553,9 +556,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>4</col>
       <colOff>0</colOff>
-      <row>80</row>
+      <row>99</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="4064000" cy="2286000"/>
@@ -578,9 +581,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>4</col>
       <colOff>0</colOff>
-      <row>85</row>
+      <row>105</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="4064000" cy="2286000"/>
@@ -603,9 +606,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>4</col>
       <colOff>0</colOff>
-      <row>89</row>
+      <row>110</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="4064000" cy="2286000"/>
@@ -616,6 +619,406 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId20"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>116</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4064000" cy="2286000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="21" name="Image 21" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId21"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>121</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4064000" cy="2286000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="22" name="Image 22" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId22"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>127</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4064000" cy="2286000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="23" name="Image 23" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId23"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>132</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4064000" cy="2286000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="24" name="Image 24" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId24"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>138</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4064000" cy="2286000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="25" name="Image 25" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId25"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>143</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4064000" cy="2286000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="26" name="Image 26" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId26"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>149</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4064000" cy="2286000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="27" name="Image 27" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId27"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>154</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4064000" cy="2286000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="28" name="Image 28" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId28"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>160</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4064000" cy="2286000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="29" name="Image 29" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId29"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>165</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4064000" cy="2286000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="30" name="Image 30" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId30"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>171</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4064000" cy="2286000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="31" name="Image 31" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId31"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>176</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4064000" cy="2286000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="32" name="Image 32" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId32"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>182</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4064000" cy="2286000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="33" name="Image 33" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId33"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>187</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4064000" cy="2286000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="34" name="Image 34" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId34"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>193</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4064000" cy="2286000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="35" name="Image 35" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId35"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>198</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4064000" cy="2286000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="36" name="Image 36" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId36"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -918,7 +1321,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:E199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -930,8 +1333,7 @@
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="59.73333333333334" customWidth="1" min="6" max="6"/>
+    <col width="59.73333333333334" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -942,25 +1344,20 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>云端</t>
+          <t>版本</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>版本</t>
+          <t>设备型号</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>设备型号</t>
+          <t>详细信息</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
-        <is>
-          <t>详细信息</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
         <is>
           <t>详细信息</t>
         </is>
@@ -974,1080 +1371,2231 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>国内其他版本</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t xml:space="preserve">HUAWEI P60 </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>样本数量</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>上行参考值</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>上行平均值</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>93.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>上行标准差</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>上行波动范围</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="192" customHeight="1">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>上行相对平均值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>下行参考值</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>下行平均值</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>73.84999999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>下行标准差</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>下行波动范围</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="192" customHeight="1">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>下行相对平均值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>@海外nbr环境</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>国内其他版本</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>LNA-AL00_12</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HUAWEI P60 </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>样本数量</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>上行参考值</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" t="inlineStr">
         <is>
           <t>上行平均值</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>93.72</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="E3" t="inlineStr">
+      <c r="E15" s="1" t="n">
+        <v>73.8725</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" t="inlineStr">
         <is>
           <t>上行标准差</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="E16" s="1" t="n">
+        <v>13.69544054299338</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>上行波动范围</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>26.65000000000001</v>
+      </c>
+    </row>
+    <row r="18" ht="192" customHeight="1">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>上行相对平均值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="n"/>
+    </row>
+    <row r="19">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>下行参考值</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="inlineStr">
+    <row r="20">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>下行平均值</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>67.52250000000001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>下行标准差</t>
+        </is>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>3.18851454442347</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>下行波动范围</t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>7.370000000000005</v>
+      </c>
+    </row>
+    <row r="23" ht="192" customHeight="1">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>下行相对平均值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>@海外nbr环境</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>国内市场版本</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>荣耀 30 5G 全网通版</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>样本数量</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>上行参考值</t>
+        </is>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>上行平均值</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>59.82869565217391</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>上行标准差</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>8.700846512812745</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" t="inlineStr">
         <is>
           <t>上行波动范围</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="E28" s="1" t="n">
+        <v>34.63</v>
+      </c>
+    </row>
+    <row r="29" ht="192" customHeight="1">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>上行相对平均值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E29" s="1" t="n"/>
+    </row>
+    <row r="30">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>下行参考值</t>
+        </is>
+      </c>
+      <c r="E30" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="192" customHeight="1">
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>上行分布图</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="E6" t="inlineStr">
+    <row r="31">
+      <c r="D31" t="inlineStr">
         <is>
           <t>下行平均值</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>73.84999999999999</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="E7" t="inlineStr">
+      <c r="E31" s="1" t="n">
+        <v>63.12304347826087</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="D32" t="inlineStr">
         <is>
           <t>下行标准差</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="E8" t="inlineStr">
+      <c r="E32" s="1" t="n">
+        <v>11.2890862158517</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" t="inlineStr">
         <is>
           <t>下行波动范围</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="192" customHeight="1">
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>下行分布图</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" t="inlineStr">
+      <c r="E33" s="1" t="n">
+        <v>38.58</v>
+      </c>
+    </row>
+    <row r="34" ht="192" customHeight="1">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>下行相对平均值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E34" s="1" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>新地推</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>国内其他版本</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HUAWEI P60 </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>样本数量</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>@海外nbr环境</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国内其他版本</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>LNA-AL00_12</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="E35" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>上行参考值</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>119.98</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="D37" t="inlineStr">
         <is>
           <t>上行平均值</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>73.8725</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" t="inlineStr">
+      <c r="E37" s="1" t="n">
+        <v>77.22499999999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="D38" t="inlineStr">
         <is>
           <t>上行标准差</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>13.69544054299338</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="inlineStr">
+      <c r="E38" s="1" t="n">
+        <v>1.22329473145273</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="D39" t="inlineStr">
         <is>
           <t>上行波动范围</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>26.65000000000001</v>
-      </c>
-    </row>
-    <row r="14" ht="192" customHeight="1">
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>上行分布图</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="E15" t="inlineStr">
+      <c r="E39" s="1" t="n">
+        <v>1.730000000000004</v>
+      </c>
+    </row>
+    <row r="40" ht="192" customHeight="1">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>上行相对参考值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E40" s="1" t="n"/>
+    </row>
+    <row r="41">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>下行参考值</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>287.09</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="D42" t="inlineStr">
         <is>
           <t>下行平均值</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>67.52250000000001</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" t="inlineStr">
+      <c r="E42" s="1" t="n">
+        <v>221.635</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="D43" t="inlineStr">
         <is>
           <t>下行标准差</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>3.18851454442347</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" t="inlineStr">
+      <c r="E43" s="1" t="n">
+        <v>10.58538851436262</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="D44" t="inlineStr">
         <is>
           <t>下行波动范围</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>7.370000000000005</v>
-      </c>
-    </row>
-    <row r="18" ht="192" customHeight="1">
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>下行分布图</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="E19" t="inlineStr">
+      <c r="E44" s="1" t="n">
+        <v>14.97</v>
+      </c>
+    </row>
+    <row r="45" ht="192" customHeight="1">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>下行相对参考值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>新地推</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>国内市场版本</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HUAWEI P60 </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>样本数量</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>@海外nbr环境</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="E46" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>上行参考值</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>119.98</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>上行平均值</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>74.0488888888889</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>上行标准差</t>
+        </is>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>4.483211584468337</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>上行波动范围</t>
+        </is>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>11.00999999999999</v>
+      </c>
+    </row>
+    <row r="51" ht="192" customHeight="1">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>上行相对参考值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="n"/>
+    </row>
+    <row r="52">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>下行参考值</t>
+        </is>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>287.09</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>下行平均值</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>222.3377777777778</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>下行标准差</t>
+        </is>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>16.78757932057045</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>下行波动范围</t>
+        </is>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>54.15000000000001</v>
+      </c>
+    </row>
+    <row r="56" ht="192" customHeight="1">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>下行相对参考值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E56" s="1" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>新地推</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>国内市场版本</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>BMH-AN10_12</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>荣耀 30 5G 全网通版</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>样本数量</t>
+        </is>
+      </c>
+      <c r="E57" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>上行参考值</t>
+        </is>
+      </c>
+      <c r="E58" s="1" t="n">
+        <v>119.98</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="D59" t="inlineStr">
         <is>
           <t>上行平均值</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>59.82869565217391</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" t="inlineStr">
+      <c r="E59" s="1" t="n">
+        <v>62.172</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="D60" t="inlineStr">
         <is>
           <t>上行标准差</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>8.700846512812745</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" t="inlineStr">
+      <c r="E60" s="1" t="n">
+        <v>5.05941893896918</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="D61" t="inlineStr">
         <is>
           <t>上行波动范围</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>34.63</v>
-      </c>
-    </row>
-    <row r="23" ht="192" customHeight="1">
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>上行分布图</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" t="inlineStr">
+      <c r="E61" s="1" t="n">
+        <v>12.31000000000001</v>
+      </c>
+    </row>
+    <row r="62" ht="192" customHeight="1">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>上行相对参考值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="n"/>
+    </row>
+    <row r="63">
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>下行参考值</t>
+        </is>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>287.09</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="D64" t="inlineStr">
         <is>
           <t>下行平均值</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>63.12304347826087</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="E25" t="inlineStr">
+      <c r="E64" s="1" t="n">
+        <v>118.194</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="D65" t="inlineStr">
         <is>
           <t>下行标准差</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>11.2890862158517</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="E26" t="inlineStr">
+      <c r="E65" s="1" t="n">
+        <v>8.874617174841966</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="D66" t="inlineStr">
         <is>
           <t>下行波动范围</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>38.58</v>
-      </c>
-    </row>
-    <row r="27" ht="192" customHeight="1">
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>下行分布图</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="E28" t="inlineStr">
+      <c r="E66" s="1" t="n">
+        <v>22.67</v>
+      </c>
+    </row>
+    <row r="67" ht="192" customHeight="1">
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>下行相对参考值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E67" s="1" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>新地推</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>国内市场版本</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HUAWEI Mate 60 Pro </t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>样本数量</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="E68" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>上行参考值</t>
+        </is>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>119.98</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>上行平均值</t>
+        </is>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>64.26307692307692</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>上行标准差</t>
+        </is>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>6.293691794984595</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>上行波动范围</t>
+        </is>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>25.78</v>
+      </c>
+    </row>
+    <row r="73" ht="192" customHeight="1">
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>上行相对参考值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E73" s="1" t="n"/>
+    </row>
+    <row r="74">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>下行参考值</t>
+        </is>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>287.09</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>下行平均值</t>
+        </is>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>128.0892307692308</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>下行标准差</t>
+        </is>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>15.0850629550882</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>下行波动范围</t>
+        </is>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>49.06</v>
+      </c>
+    </row>
+    <row r="78" ht="192" customHeight="1">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>下行相对参考值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E78" s="1" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>新地推</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>国内其他版本</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>LNA-AL00_12</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>enet-8.1.7_2407110939</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HUAWEI P60 </t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>样本数量</t>
+        </is>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>上行参考值</t>
+        </is>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>119.98</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="D81" t="inlineStr">
         <is>
           <t>上行平均值</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>77.22499999999999</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="E30" t="inlineStr">
+      <c r="E81" s="1" t="n">
+        <v>75.746</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="D82" t="inlineStr">
         <is>
           <t>上行标准差</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>1.22329473145273</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="inlineStr">
+      <c r="E82" s="1" t="n">
+        <v>6.414126928531984</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="D83" t="inlineStr">
         <is>
           <t>上行波动范围</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>1.730000000000004</v>
-      </c>
-    </row>
-    <row r="32" ht="192" customHeight="1">
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>上行分布图</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="E33" t="inlineStr">
+      <c r="E83" s="1" t="n">
+        <v>46.28</v>
+      </c>
+    </row>
+    <row r="84" ht="192" customHeight="1">
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>上行相对参考值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E84" s="1" t="n"/>
+    </row>
+    <row r="85">
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>下行参考值</t>
+        </is>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>287.09</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="D86" t="inlineStr">
         <is>
           <t>下行平均值</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>221.635</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="E34" t="inlineStr">
+      <c r="E86" s="1" t="n">
+        <v>201.2671578947368</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="D87" t="inlineStr">
         <is>
           <t>下行标准差</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>10.58538851436262</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="E35" t="inlineStr">
+      <c r="E87" s="1" t="n">
+        <v>21.93445345157898</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="D88" t="inlineStr">
         <is>
           <t>下行波动范围</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>14.97</v>
-      </c>
-    </row>
-    <row r="36" ht="192" customHeight="1">
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>下行分布图</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="E37" t="inlineStr">
+      <c r="E88" s="1" t="n">
+        <v>128.54</v>
+      </c>
+    </row>
+    <row r="89" ht="192" customHeight="1">
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>下行相对参考值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E89" s="1" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>新地推</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>enet-8.1.7_2407110939</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HUAWEI Mate 60 Pro </t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>样本数量</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="E90" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>上行参考值</t>
+        </is>
+      </c>
+      <c r="E91" s="1" t="n">
+        <v>119.98</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>上行平均值</t>
+        </is>
+      </c>
+      <c r="E92" s="1" t="n">
+        <v>62.81142857142857</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>上行标准差</t>
+        </is>
+      </c>
+      <c r="E93" s="1" t="n">
+        <v>8.205603017397374</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>上行波动范围</t>
+        </is>
+      </c>
+      <c r="E94" s="1" t="n">
+        <v>23.68</v>
+      </c>
+    </row>
+    <row r="95" ht="192" customHeight="1">
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>上行相对参考值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E95" s="1" t="n"/>
+    </row>
+    <row r="96">
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>下行参考值</t>
+        </is>
+      </c>
+      <c r="E96" s="1" t="n">
+        <v>287.09</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>下行平均值</t>
+        </is>
+      </c>
+      <c r="E97" s="1" t="n">
+        <v>163.4785714285714</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>下行标准差</t>
+        </is>
+      </c>
+      <c r="E98" s="1" t="n">
+        <v>51.40103723244725</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>下行波动范围</t>
+        </is>
+      </c>
+      <c r="E99" s="1" t="n">
+        <v>156.32</v>
+      </c>
+    </row>
+    <row r="100" ht="192" customHeight="1">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>下行相对参考值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E100" s="1" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
         <is>
           <t>新地推</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>国内市场版本</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>LNA-AL00_12</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>enet-8.1.6</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HUAWEI Mate 60 Pro </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>样本数量</t>
+        </is>
+      </c>
+      <c r="E101" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>上行参考值</t>
+        </is>
+      </c>
+      <c r="E102" s="1" t="n">
+        <v>119.98</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="D103" t="inlineStr">
         <is>
           <t>上行平均值</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>74.0488888888889</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="E39" t="inlineStr">
+      <c r="E103" s="1" t="n">
+        <v>64.8484</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="D104" t="inlineStr">
         <is>
           <t>上行标准差</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>4.483211584468337</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="E40" t="inlineStr">
+      <c r="E104" s="1" t="n">
+        <v>8.85926780039884</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="D105" t="inlineStr">
         <is>
           <t>上行波动范围</t>
         </is>
       </c>
-      <c r="F40" t="n">
-        <v>11.00999999999999</v>
-      </c>
-    </row>
-    <row r="41" ht="192" customHeight="1">
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>上行分布图</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="E42" t="inlineStr">
+      <c r="E105" s="1" t="n">
+        <v>48.59999999999999</v>
+      </c>
+    </row>
+    <row r="106" ht="192" customHeight="1">
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>上行相对参考值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E106" s="1" t="n"/>
+    </row>
+    <row r="107">
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>下行参考值</t>
+        </is>
+      </c>
+      <c r="E107" s="1" t="n">
+        <v>287.09</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="D108" t="inlineStr">
         <is>
           <t>下行平均值</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>222.3377777777778</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="E43" t="inlineStr">
+      <c r="E108" s="1" t="n">
+        <v>159.1372</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="D109" t="inlineStr">
         <is>
           <t>下行标准差</t>
         </is>
       </c>
-      <c r="F43" t="n">
-        <v>16.78757932057045</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="E44" t="inlineStr">
+      <c r="E109" s="1" t="n">
+        <v>24.70230428316272</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="D110" t="inlineStr">
         <is>
           <t>下行波动范围</t>
         </is>
       </c>
-      <c r="F44" t="n">
-        <v>54.15000000000001</v>
-      </c>
-    </row>
-    <row r="45" ht="192" customHeight="1">
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>下行分布图</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="E46" t="inlineStr">
+      <c r="E110" s="1" t="n">
+        <v>138.44</v>
+      </c>
+    </row>
+    <row r="111" ht="192" customHeight="1">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>下行相对参考值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E111" s="1" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>新地推</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>信通院全球网测</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>荣耀 30 5G 全网通版</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>样本数量</t>
         </is>
       </c>
-      <c r="F46" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="E112" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>上行参考值</t>
+        </is>
+      </c>
+      <c r="E113" s="1" t="n">
+        <v>119.98</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>上行平均值</t>
+        </is>
+      </c>
+      <c r="E114" s="1" t="n">
+        <v>84.40333333333334</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>上行标准差</t>
+        </is>
+      </c>
+      <c r="E115" s="1" t="n">
+        <v>20.562707344446</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>上行波动范围</t>
+        </is>
+      </c>
+      <c r="E116" s="1" t="n">
+        <v>39.42</v>
+      </c>
+    </row>
+    <row r="117" ht="192" customHeight="1">
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>上行相对参考值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E117" s="1" t="n"/>
+    </row>
+    <row r="118">
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>下行参考值</t>
+        </is>
+      </c>
+      <c r="E118" s="1" t="n">
+        <v>287.09</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>下行平均值</t>
+        </is>
+      </c>
+      <c r="E119" s="1" t="n">
+        <v>112.0266666666667</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>下行标准差</t>
+        </is>
+      </c>
+      <c r="E120" s="1" t="n">
+        <v>15.54849617594362</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>下行波动范围</t>
+        </is>
+      </c>
+      <c r="E121" s="1" t="n">
+        <v>27.36</v>
+      </c>
+    </row>
+    <row r="122" ht="192" customHeight="1">
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>下行相对参考值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E122" s="1" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
         <is>
           <t>新地推</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>国内市场版本</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>BMH-AN10_12</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>信通院全球网测</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HUAWEI P60 </t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>样本数量</t>
+        </is>
+      </c>
+      <c r="E123" s="1" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>上行参考值</t>
+        </is>
+      </c>
+      <c r="E124" s="1" t="n">
+        <v>119.98</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="D125" t="inlineStr">
         <is>
           <t>上行平均值</t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>62.172</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="E48" t="inlineStr">
+      <c r="E125" s="1" t="n">
+        <v>91.45251612903226</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="D126" t="inlineStr">
         <is>
           <t>上行标准差</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>5.05941893896918</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="E49" t="inlineStr">
+      <c r="E126" s="1" t="n">
+        <v>13.43801834849463</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="D127" t="inlineStr">
         <is>
           <t>上行波动范围</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>12.31000000000001</v>
-      </c>
-    </row>
-    <row r="50" ht="192" customHeight="1">
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>上行分布图</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="E51" t="inlineStr">
+      <c r="E127" s="1" t="n">
+        <v>103.82</v>
+      </c>
+    </row>
+    <row r="128" ht="192" customHeight="1">
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>上行相对参考值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>下行参考值</t>
+        </is>
+      </c>
+      <c r="E129" s="1" t="n">
+        <v>287.09</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="D130" t="inlineStr">
         <is>
           <t>下行平均值</t>
         </is>
       </c>
-      <c r="F51" t="n">
-        <v>118.194</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="E52" t="inlineStr">
+      <c r="E130" s="1" t="n">
+        <v>251.5905161290323</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="D131" t="inlineStr">
         <is>
           <t>下行标准差</t>
         </is>
       </c>
-      <c r="F52" t="n">
-        <v>8.874617174841966</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="E53" t="inlineStr">
+      <c r="E131" s="1" t="n">
+        <v>32.29777347063498</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="D132" t="inlineStr">
         <is>
           <t>下行波动范围</t>
         </is>
       </c>
-      <c r="F53" t="n">
-        <v>22.67</v>
-      </c>
-    </row>
-    <row r="54" ht="192" customHeight="1">
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>下行分布图</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="E55" t="inlineStr">
+      <c r="E132" s="1" t="n">
+        <v>135.76</v>
+      </c>
+    </row>
+    <row r="133" ht="192" customHeight="1">
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>下行相对参考值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E133" s="1" t="n"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>新地推</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>信通院全球网测</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HUAWEI Mate 60 Pro </t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
         <is>
           <t>样本数量</t>
         </is>
       </c>
-      <c r="F55" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="E134" s="1" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>上行参考值</t>
+        </is>
+      </c>
+      <c r="E135" s="1" t="n">
+        <v>119.98</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>上行平均值</t>
+        </is>
+      </c>
+      <c r="E136" s="1" t="n">
+        <v>73.65575342465753</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>上行标准差</t>
+        </is>
+      </c>
+      <c r="E137" s="1" t="n">
+        <v>11.3990778035633</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>上行波动范围</t>
+        </is>
+      </c>
+      <c r="E138" s="1" t="n">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="139" ht="192" customHeight="1">
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>上行相对参考值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E139" s="1" t="n"/>
+    </row>
+    <row r="140">
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>下行参考值</t>
+        </is>
+      </c>
+      <c r="E140" s="1" t="n">
+        <v>287.09</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>下行平均值</t>
+        </is>
+      </c>
+      <c r="E141" s="1" t="n">
+        <v>176.4834246575342</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>下行标准差</t>
+        </is>
+      </c>
+      <c r="E142" s="1" t="n">
+        <v>25.21823993875917</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>下行波动范围</t>
+        </is>
+      </c>
+      <c r="E143" s="1" t="n">
+        <v>114.71</v>
+      </c>
+    </row>
+    <row r="144" ht="192" customHeight="1">
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>下行相对参考值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E144" s="1" t="n"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>新地推</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>国内市场版本</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>ALN-AL80_12</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>信通院全球网测</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Xiaomi 13 国行版</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>样本数量</t>
+        </is>
+      </c>
+      <c r="E145" s="1" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>上行参考值</t>
+        </is>
+      </c>
+      <c r="E146" s="1" t="n">
+        <v>119.98</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="D147" t="inlineStr">
         <is>
           <t>上行平均值</t>
         </is>
       </c>
-      <c r="F56" t="n">
-        <v>64.26307692307692</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="E57" t="inlineStr">
+      <c r="E147" s="1" t="n">
+        <v>85.78333333333333</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="D148" t="inlineStr">
         <is>
           <t>上行标准差</t>
         </is>
       </c>
-      <c r="F57" t="n">
-        <v>6.293691794984595</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="E58" t="inlineStr">
+      <c r="E148" s="1" t="n">
+        <v>8.841321618704297</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="D149" t="inlineStr">
         <is>
           <t>上行波动范围</t>
         </is>
       </c>
-      <c r="F58" t="n">
-        <v>25.78</v>
-      </c>
-    </row>
-    <row r="59" ht="192" customHeight="1">
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>上行分布图</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="E60" t="inlineStr">
+      <c r="E149" s="1" t="n">
+        <v>40.23999999999999</v>
+      </c>
+    </row>
+    <row r="150" ht="192" customHeight="1">
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>上行相对参考值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E150" s="1" t="n"/>
+    </row>
+    <row r="151">
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>下行参考值</t>
+        </is>
+      </c>
+      <c r="E151" s="1" t="n">
+        <v>287.09</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="D152" t="inlineStr">
         <is>
           <t>下行平均值</t>
         </is>
       </c>
-      <c r="F60" t="n">
-        <v>128.0892307692308</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="E61" t="inlineStr">
+      <c r="E152" s="1" t="n">
+        <v>194.8223076923077</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="D153" t="inlineStr">
         <is>
           <t>下行标准差</t>
         </is>
       </c>
-      <c r="F61" t="n">
-        <v>15.0850629550882</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="E62" t="inlineStr">
+      <c r="E153" s="1" t="n">
+        <v>12.76338186701772</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="D154" t="inlineStr">
         <is>
           <t>下行波动范围</t>
         </is>
       </c>
-      <c r="F62" t="n">
-        <v>49.06</v>
-      </c>
-    </row>
-    <row r="63" ht="192" customHeight="1">
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>下行分布图</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="E64" t="inlineStr">
+      <c r="E154" s="1" t="n">
+        <v>70.74000000000001</v>
+      </c>
+    </row>
+    <row r="155" ht="192" customHeight="1">
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>下行相对参考值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E155" s="1" t="n"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>新地推</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>花瓣测速</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>荣耀 30 5G 全网通版</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
         <is>
           <t>样本数量</t>
         </is>
       </c>
-      <c r="F64" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>新地推</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>非睿易应用</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
+      <c r="E156" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>上行参考值</t>
+        </is>
+      </c>
+      <c r="E157" s="1" t="n">
+        <v>119.98</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>上行平均值</t>
+        </is>
+      </c>
+      <c r="E158" s="1" t="n">
+        <v>108.80625</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>上行标准差</t>
+        </is>
+      </c>
+      <c r="E159" s="1" t="n">
+        <v>10.50642380029611</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>上行波动范围</t>
+        </is>
+      </c>
+      <c r="E160" s="1" t="n">
+        <v>37.83</v>
+      </c>
+    </row>
+    <row r="161" ht="192" customHeight="1">
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>上行相对参考值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E161" s="1" t="n"/>
+    </row>
+    <row r="162">
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>下行参考值</t>
+        </is>
+      </c>
+      <c r="E162" s="1" t="n">
+        <v>287.09</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>下行平均值</t>
+        </is>
+      </c>
+      <c r="E163" s="1" t="n">
+        <v>163.3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>下行标准差</t>
+        </is>
+      </c>
+      <c r="E164" s="1" t="n">
+        <v>35.69510850842971</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>下行波动范围</t>
+        </is>
+      </c>
+      <c r="E165" s="1" t="n">
+        <v>102.49</v>
+      </c>
+    </row>
+    <row r="166" ht="192" customHeight="1">
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>下行相对参考值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E166" s="1" t="n"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>@@@INTL-dev</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
         <is>
           <t>信通院全球网测</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>BMH-AN10_12</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
+      <c r="C167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HUAWEI Mate 60 Pro </t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>样本数量</t>
+        </is>
+      </c>
+      <c r="E167" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>上行参考值</t>
+        </is>
+      </c>
+      <c r="E168" s="1" t="n">
+        <v>71.89</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="D169" t="inlineStr">
         <is>
           <t>上行平均值</t>
         </is>
       </c>
-      <c r="F65" t="n">
-        <v>84.40333333333334</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="E66" t="inlineStr">
+      <c r="E169" s="1" t="n">
+        <v>60.21</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="D170" t="inlineStr">
         <is>
           <t>上行标准差</t>
         </is>
       </c>
-      <c r="F66" t="n">
-        <v>20.562707344446</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="E67" t="inlineStr">
+      <c r="E170" s="1" t="n">
+        <v>10.3129481720796</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="D171" t="inlineStr">
         <is>
           <t>上行波动范围</t>
         </is>
       </c>
-      <c r="F67" t="n">
-        <v>39.42</v>
-      </c>
-    </row>
-    <row r="68" ht="192" customHeight="1">
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>上行分布图</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="E69" t="inlineStr">
+      <c r="E171" s="1" t="n">
+        <v>19.53</v>
+      </c>
+    </row>
+    <row r="172" ht="192" customHeight="1">
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>上行相对参考值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E172" s="1" t="n"/>
+    </row>
+    <row r="173">
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>下行参考值</t>
+        </is>
+      </c>
+      <c r="E173" s="1" t="n">
+        <v>156.26</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="D174" t="inlineStr">
         <is>
           <t>下行平均值</t>
         </is>
       </c>
-      <c r="F69" t="n">
-        <v>112.0266666666667</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="E70" t="inlineStr">
+      <c r="E174" s="1" t="n">
+        <v>159.17</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="D175" t="inlineStr">
         <is>
           <t>下行标准差</t>
         </is>
       </c>
-      <c r="F70" t="n">
-        <v>15.54849617594362</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="E71" t="inlineStr">
+      <c r="E175" s="1" t="n">
+        <v>130.9892449783569</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="D176" t="inlineStr">
         <is>
           <t>下行波动范围</t>
         </is>
       </c>
-      <c r="F71" t="n">
-        <v>27.36</v>
-      </c>
-    </row>
-    <row r="72" ht="192" customHeight="1">
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>下行分布图</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="E73" t="inlineStr">
+      <c r="E176" s="1" t="n">
+        <v>261.9299999999999</v>
+      </c>
+    </row>
+    <row r="177" ht="192" customHeight="1">
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>下行相对参考值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E177" s="1" t="n"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Xiaomi_G20106_5G</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>信通院全球网测</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HUAWEI P60 </t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
         <is>
           <t>样本数量</t>
         </is>
       </c>
-      <c r="F73" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>新地推</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>非睿易应用</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>信通院全球网测</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>LNA-AL00_12</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
+      <c r="E178" s="1" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>上行参考值</t>
+        </is>
+      </c>
+      <c r="E179" s="1" t="n">
+        <v>53.42</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="D180" t="inlineStr">
         <is>
           <t>上行平均值</t>
         </is>
       </c>
-      <c r="F74" t="n">
-        <v>91.45251612903226</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="E75" t="inlineStr">
+      <c r="E180" s="1" t="n">
+        <v>41.40835294117647</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="D181" t="inlineStr">
         <is>
           <t>上行标准差</t>
         </is>
       </c>
-      <c r="F75" t="n">
-        <v>13.43801834849463</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="E76" t="inlineStr">
+      <c r="E181" s="1" t="n">
+        <v>6.143058771037908</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="D182" t="inlineStr">
         <is>
           <t>上行波动范围</t>
         </is>
       </c>
-      <c r="F76" t="n">
-        <v>103.82</v>
-      </c>
-    </row>
-    <row r="77" ht="192" customHeight="1">
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>上行分布图</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="E78" t="inlineStr">
+      <c r="E182" s="1" t="n">
+        <v>28.68</v>
+      </c>
+    </row>
+    <row r="183" ht="192" customHeight="1">
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>上行相对参考值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E183" s="1" t="n"/>
+    </row>
+    <row r="184">
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>下行参考值</t>
+        </is>
+      </c>
+      <c r="E184" s="1" t="n">
+        <v>466.33</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="D185" t="inlineStr">
         <is>
           <t>下行平均值</t>
         </is>
       </c>
-      <c r="F78" t="n">
-        <v>251.5905161290323</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="E79" t="inlineStr">
+      <c r="E185" s="1" t="n">
+        <v>435.1349411764706</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="D186" t="inlineStr">
         <is>
           <t>下行标准差</t>
         </is>
       </c>
-      <c r="F79" t="n">
-        <v>32.29777347063498</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="E80" t="inlineStr">
+      <c r="E186" s="1" t="n">
+        <v>22.08694732100351</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="D187" t="inlineStr">
         <is>
           <t>下行波动范围</t>
         </is>
       </c>
-      <c r="F80" t="n">
-        <v>135.76</v>
-      </c>
-    </row>
-    <row r="81" ht="192" customHeight="1">
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>下行分布图</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="E82" t="inlineStr">
+      <c r="E187" s="1" t="n">
+        <v>188.1</v>
+      </c>
+    </row>
+    <row r="188" ht="192" customHeight="1">
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>下行相对参考值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E188" s="1" t="n"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Xiaomi_G20106_5G</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>enet-8.1.6</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HUAWEI P60 </t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
         <is>
           <t>样本数量</t>
         </is>
       </c>
-      <c r="F82" t="n">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>新地推</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>非睿易应用</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>花瓣测速</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>BMH-AN10_12</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
+      <c r="E189" s="1" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>上行参考值</t>
+        </is>
+      </c>
+      <c r="E190" s="1" t="n">
+        <v>53.42</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="D191" t="inlineStr">
         <is>
           <t>上行平均值</t>
         </is>
       </c>
-      <c r="F83" t="n">
-        <v>108.80625</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="E84" t="inlineStr">
+      <c r="E191" s="1" t="n">
+        <v>54.60546666666666</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="D192" t="inlineStr">
         <is>
           <t>上行标准差</t>
         </is>
       </c>
-      <c r="F84" t="n">
-        <v>10.50642380029611</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="E85" t="inlineStr">
+      <c r="E192" s="1" t="n">
+        <v>1.73308917915619</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="D193" t="inlineStr">
         <is>
           <t>上行波动范围</t>
         </is>
       </c>
-      <c r="F85" t="n">
-        <v>37.83</v>
-      </c>
-    </row>
-    <row r="86" ht="192" customHeight="1">
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>上行分布图</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="E87" t="inlineStr">
+      <c r="E193" s="1" t="n">
+        <v>8.390000000000001</v>
+      </c>
+    </row>
+    <row r="194" ht="192" customHeight="1">
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>上行相对参考值偏差分布图</t>
+        </is>
+      </c>
+      <c r="E194" s="1" t="n"/>
+    </row>
+    <row r="195">
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>下行参考值</t>
+        </is>
+      </c>
+      <c r="E195" s="1" t="n">
+        <v>466.33</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="D196" t="inlineStr">
         <is>
           <t>下行平均值</t>
         </is>
       </c>
-      <c r="F87" t="n">
-        <v>163.3</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="E88" t="inlineStr">
+      <c r="E196" s="1" t="n">
+        <v>420.4364666666667</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="D197" t="inlineStr">
         <is>
           <t>下行标准差</t>
         </is>
       </c>
-      <c r="F88" t="n">
-        <v>35.69510850842971</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="E89" t="inlineStr">
+      <c r="E197" s="1" t="n">
+        <v>11.47612801764624</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="D198" t="inlineStr">
         <is>
           <t>下行波动范围</t>
         </is>
       </c>
-      <c r="F89" t="n">
-        <v>102.49</v>
-      </c>
-    </row>
-    <row r="90" ht="192" customHeight="1">
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>下行分布图</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>样本数量</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>8</v>
+      <c r="E198" t="n">
+        <v>135.32</v>
+      </c>
+    </row>
+    <row r="199" ht="192" customHeight="1">
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>下行相对参考值偏差分布图</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A65:A73"/>
-    <mergeCell ref="C65:C73"/>
-    <mergeCell ref="A74:A82"/>
-    <mergeCell ref="C47:C55"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="C56:C64"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="B38:B46"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="D56:D64"/>
-    <mergeCell ref="D47:D55"/>
-    <mergeCell ref="B65:B73"/>
-    <mergeCell ref="B83:B91"/>
-    <mergeCell ref="B74:B82"/>
-    <mergeCell ref="D83:D91"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="D74:D82"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="C38:C46"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="A83:A91"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="D38:D46"/>
-    <mergeCell ref="D29:D37"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="C74:C82"/>
-    <mergeCell ref="B56:B64"/>
-    <mergeCell ref="C83:C91"/>
-    <mergeCell ref="B47:B55"/>
-    <mergeCell ref="D65:D73"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="C29:C37"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="D11:D19"/>
-    <mergeCell ref="D2:D10"/>
+  <mergeCells count="54">
+    <mergeCell ref="C79:C89"/>
+    <mergeCell ref="B145:B155"/>
+    <mergeCell ref="B167:B177"/>
+    <mergeCell ref="A178:A188"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="A90:A100"/>
+    <mergeCell ref="B101:B111"/>
+    <mergeCell ref="C90:C100"/>
+    <mergeCell ref="C134:C144"/>
+    <mergeCell ref="C35:C45"/>
+    <mergeCell ref="A189:A199"/>
+    <mergeCell ref="B57:B67"/>
+    <mergeCell ref="C167:C177"/>
+    <mergeCell ref="C123:C133"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="A145:A155"/>
+    <mergeCell ref="A101:A111"/>
+    <mergeCell ref="A46:A56"/>
+    <mergeCell ref="B178:B188"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="C46:C56"/>
+    <mergeCell ref="C2:C12"/>
+    <mergeCell ref="B112:B122"/>
+    <mergeCell ref="B68:B78"/>
+    <mergeCell ref="A134:A144"/>
+    <mergeCell ref="A112:A122"/>
+    <mergeCell ref="B24:B34"/>
+    <mergeCell ref="A156:A166"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="B189:B199"/>
+    <mergeCell ref="C57:C67"/>
+    <mergeCell ref="A35:A45"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="C156:C166"/>
+    <mergeCell ref="C178:C188"/>
+    <mergeCell ref="B123:B133"/>
+    <mergeCell ref="A68:A78"/>
+    <mergeCell ref="C189:C199"/>
+    <mergeCell ref="A24:A34"/>
+    <mergeCell ref="B79:B89"/>
+    <mergeCell ref="B35:B45"/>
+    <mergeCell ref="C145:C155"/>
+    <mergeCell ref="A167:A177"/>
+    <mergeCell ref="A123:A133"/>
+    <mergeCell ref="C68:C78"/>
+    <mergeCell ref="A79:A89"/>
+    <mergeCell ref="B134:B144"/>
+    <mergeCell ref="B156:B166"/>
+    <mergeCell ref="C24:C34"/>
+    <mergeCell ref="B46:B56"/>
+    <mergeCell ref="B90:B100"/>
+    <mergeCell ref="C101:C111"/>
+    <mergeCell ref="C112:C122"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
